--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C6B3A-3053-4C1B-B670-152C4934B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBF1AC-644C-4DAE-9A4D-C3CE18BB98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1545" windowWidth="22935" windowHeight="13935" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
   <si>
     <t>Price</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Physiochemistry</t>
   </si>
   <si>
-    <t>onvansertib</t>
-  </si>
-  <si>
     <t>II</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>Price per competition</t>
   </si>
   <si>
-    <t>RAS-mut mCRC; Pfizer Economics?</t>
-  </si>
-  <si>
     <t>50% pfizer-cut priced in</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>PLK1 inhibitor, Ki 2nM?</t>
   </si>
   <si>
-    <t>532MW, 1.5 logP, 3 HBD, 10 HBA, 8 RB</t>
-  </si>
-  <si>
     <t>Search terms="NMS-P937"</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
     <t>Phase Ib/II "TROV-054" in RAS-mut mCRC n=68 NCT:NCT03829410</t>
   </si>
   <si>
-    <t>Phase II "ONSEMBLE/CRDF-003" in RAS-mutated mCRC n=30 NCT:NCT05593328</t>
-  </si>
-  <si>
     <t>Phase II "CRDF-001" in PDAC n=43 NCT:NCT04752696</t>
   </si>
   <si>
@@ -466,9 +454,6 @@
     <t>mCRC RAS-mut, mPDAC, SCLC, TNBC</t>
   </si>
   <si>
-    <t>Used post-hoc analysis to say bev-naiive patients responded better</t>
-  </si>
-  <si>
     <t>Failed P.E (26% ORR)</t>
   </si>
   <si>
@@ -499,9 +484,6 @@
     <t>the exposure on day 1 won't be sufficient.</t>
   </si>
   <si>
-    <t>Phase I</t>
-  </si>
-  <si>
     <t>Back when it was called NMS-1286937, 45mg and 64mg doses were found not to impact pHH3 levels (Weiss GJ, 2017) (notorious PD biomarker for Plk1 inhibition)</t>
   </si>
   <si>
@@ -520,9 +502,6 @@
     <t>Volasertib</t>
   </si>
   <si>
-    <t>Cancer</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -557,6 +536,48 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>onvansertib, 1-(2-hydroxyethyl)-8-[5-(4-methylpiperazin-1-yl)-2-(trifluoromethoxy)anilino]-4,5-dihydropyrazolo[4,3-h]quinazoline-3-carboxamide</t>
+  </si>
+  <si>
+    <t>532.5MW, 2 logP, 3 HBD, 12 HBA, 7 RB</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>ADME</t>
+  </si>
+  <si>
+    <t>Efflux ratio 5.6 (P-gp), PPB 95% at 10uM 91% at 50uM, 22% oral bioavaliability, Mean Cmax 163-191ng/ml, AUC0-24 ~ 2000+-700 as per (Beria, 2011)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Affects mitosis? Induces apoptosis in tumors? ATP competitive inhibitor for PLK1 meaning when bound ATP cannot bind so the enzyme cannot perform its phosphate-transfer activity (phosphorylation)</t>
+  </si>
+  <si>
+    <t>Leukemia?</t>
+  </si>
+  <si>
+    <t>RAS-mut mCRC bev-naiive 1L+2L; Pfizer Economics?</t>
+  </si>
+  <si>
+    <t>Economics hinges on it being 1L treatment because 2L means most likely bev treated and less than 25% the pop &lt;9000 patients vs 48,000</t>
+  </si>
+  <si>
+    <t>Phase I, biomarkers not S.S</t>
+  </si>
+  <si>
+    <t>Phase II "ONSEMBLE/CRDF-003" in RAS-mutated mCRC n=23 NCT:NCT05593328</t>
+  </si>
+  <si>
+    <t>Used post-hoc analysis (n=4; wide SD prob not S.S) to say bev-naiive patients responded better (they should respond better anyways?)</t>
   </si>
 </sst>
 </file>
@@ -731,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -763,12 +784,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -789,50 +805,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>548866</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>126106</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99218E91-9B05-D407-3CD4-9118DE7642E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6244816" y="0"/>
-          <a:ext cx="2015640" cy="1890929"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -860,7 +832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -921,7 +893,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -982,7 +954,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -998,67 +970,6 @@
         <a:xfrm>
           <a:off x="466725" y="16221076"/>
           <a:ext cx="7093519" cy="3600450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>144267</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8E891A-4770-28AC-6444-625C14778E6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8105775" y="10993242"/>
-          <a:ext cx="10487024" cy="4599182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,7 +1015,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1148,7 +1059,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1209,7 +1120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1270,7 +1181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1331,7 +1242,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1392,7 +1303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1453,7 +1364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1514,7 +1425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1575,7 +1486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1636,7 +1547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1697,7 +1608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1713,6 +1624,67 @@
         <a:xfrm>
           <a:off x="257175" y="37614225"/>
           <a:ext cx="7357150" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0FD5C6-1D6C-0B4A-92FB-711E1A960026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6257925" y="66675"/>
+          <a:ext cx="2228850" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2068,14 +2040,16 @@
   <dimension ref="B3:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
@@ -2109,19 +2083,19 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="20"/>
       <c r="J4" t="s">
@@ -2136,10 +2110,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="3"/>
       <c r="G5" s="7"/>
       <c r="J5" t="s">
         <v>2</v>
@@ -2151,10 +2122,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="3"/>
       <c r="G6" s="7"/>
       <c r="J6" t="s">
         <v>3</v>
@@ -2169,10 +2137,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="3"/>
       <c r="G7" s="7"/>
       <c r="J7" t="s">
         <v>4</v>
@@ -2185,7 +2150,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2201,7 +2166,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K9" s="1">
         <f>K6/K4</f>
@@ -2225,20 +2190,20 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2278,23 +2243,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3304BC0B-A393-421F-A17A-C6AF338ED280}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2308,24 +2277,38 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2325,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2375,58 +2358,58 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2434,34 +2417,34 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -2469,115 +2452,117 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -2586,68 +2571,71 @@
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -2655,30 +2643,30 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2682,7 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2715,7 +2703,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2723,7 +2711,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2731,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2739,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2747,7 +2735,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2755,30 +2743,43 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>107</v>
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="13" t="s">
-        <v>32</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2786,70 +2787,67 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C20" s="24" t="s">
-        <v>136</v>
+      <c r="C20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C21" s="24" t="s">
-        <v>135</v>
+      <c r="C21" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C24" s="24"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D36" s="13" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.2">
@@ -2931,9 +2929,10 @@
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
+        <f>48000</f>
         <v>48000</v>
       </c>
       <c r="E38" s="2">
@@ -3011,7 +3010,7 @@
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <f>D38*0.4</f>
@@ -3154,7 +3153,7 @@
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" s="2">
         <f>(F40*F39)/1000000*0.5</f>
@@ -3227,7 +3226,7 @@
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="14">
         <v>0.08</v>
@@ -3235,26 +3234,26 @@
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="15">
         <f>NPV(E42,F41:V41)/2-I46</f>
-        <v>1026.8047877912325</v>
+        <v>1126.8047877912325</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1">
         <f>E43/Main!K4</f>
-        <v>15.434638904957948</v>
+        <v>16.937810597228641</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.2">
@@ -3266,78 +3265,83 @@
       </c>
       <c r="F45" s="14"/>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E46" s="14">
         <f>E45/E43</f>
-        <v>0.18504004096894644</v>
+        <v>0.1686183818693554</v>
       </c>
       <c r="G46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I46">
-        <v>400</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M58" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M59" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3377,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -3381,7 +3385,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>113</v>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="16">
         <v>45223</v>
@@ -3397,7 +3401,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="16">
         <v>45349</v>
@@ -3408,113 +3412,113 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBF1AC-644C-4DAE-9A4D-C3CE18BB98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBD638-98B8-43CF-88AA-BCFB392B4BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="3120" yWindow="1545" windowWidth="22935" windowHeight="13935" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="PLK1" sheetId="8" r:id="rId3"/>
     <sheet name="Literature" sheetId="4" r:id="rId4"/>
     <sheet name="onvansertib" sheetId="3" r:id="rId5"/>
-    <sheet name="CRDF-004" sheetId="7" r:id="rId6"/>
+    <sheet name="competitors" sheetId="9" r:id="rId6"/>
+    <sheet name="CRDF-004" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
     <author>tc={4382AF29-415F-4F37-9F48-FB8CD8FAF520}</author>
   </authors>
   <commentList>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="207">
   <si>
     <t>Price</t>
   </si>
@@ -172,9 +173,6 @@
     <t>Treated</t>
   </si>
   <si>
-    <t>Pfizer?</t>
-  </si>
-  <si>
     <t>Share</t>
   </si>
   <si>
@@ -379,18 +377,12 @@
     <t>RAS-mutated mCRC; mPDAC; SCLC; TNBC</t>
   </si>
   <si>
-    <t>Pfizer? KU Medical Center? University of Maryland? Dana-Farber?</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3111/13696998.2015.1105230</t>
   </si>
   <si>
     <t>Price per competition</t>
   </si>
   <si>
-    <t>50% pfizer-cut priced in</t>
-  </si>
-  <si>
     <t>Not S.S?</t>
   </si>
   <si>
@@ -535,9 +527,6 @@
     <t>1: Wang D, Veo B, Pierce A, Fosmire S, Madhavan K, Balakrishnan I, Donson A, Alimova I, Sullivan KD, Joshi M, Erlander M, Ridinger M, Foreman NK, Venkataraman S, Vibhakar R. A novel PLK1 inhibitor onvansertib effectively sensitizes MYC-driven medulloblastoma to radiotherapy. Neuro Oncol. 2022 Mar 12;24(3):414-426. doi: 10.1093/neuonc/noab207. PMID: 34477871; PMCID: PMC8917408.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>onvansertib, 1-(2-hydroxyethyl)-8-[5-(4-methylpiperazin-1-yl)-2-(trifluoromethoxy)anilino]-4,5-dihydropyrazolo[4,3-h]quinazoline-3-carboxamide</t>
   </si>
   <si>
@@ -547,9 +536,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Important</t>
-  </si>
-  <si>
     <t>ADME</t>
   </si>
   <si>
@@ -559,31 +545,151 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Affects mitosis? Induces apoptosis in tumors? ATP competitive inhibitor for PLK1 meaning when bound ATP cannot bind so the enzyme cannot perform its phosphate-transfer activity (phosphorylation)</t>
-  </si>
-  <si>
     <t>Leukemia?</t>
   </si>
   <si>
-    <t>RAS-mut mCRC bev-naiive 1L+2L; Pfizer Economics?</t>
-  </si>
-  <si>
-    <t>Economics hinges on it being 1L treatment because 2L means most likely bev treated and less than 25% the pop &lt;9000 patients vs 48,000</t>
-  </si>
-  <si>
-    <t>Phase I, biomarkers not S.S</t>
-  </si>
-  <si>
     <t>Phase II "ONSEMBLE/CRDF-003" in RAS-mutated mCRC n=23 NCT:NCT05593328</t>
   </si>
   <si>
     <t>Used post-hoc analysis (n=4; wide SD prob not S.S) to say bev-naiive patients responded better (they should respond better anyways?)</t>
+  </si>
+  <si>
+    <t>t-test P value = 0.8344 for Bev Naiive group</t>
+  </si>
+  <si>
+    <t>30mg only p value =0.1 for bev naiive</t>
+  </si>
+  <si>
+    <t>Phase I "" in metastatic solid tumor n=21 NCT:NCT01014429</t>
+  </si>
+  <si>
+    <t>P.E. MTD and DLTS; S.E. PK/PD</t>
+  </si>
+  <si>
+    <t>Nerviano Medical Sciences 2011 study</t>
+  </si>
+  <si>
+    <t>DLTs 50% in 18mg/m^2, 14% in 15mg, 11% in 12mg</t>
+  </si>
+  <si>
+    <t>TEAEs related to onvansertib 57%; Serious TEAE related to onvansertib 2%</t>
+  </si>
+  <si>
+    <t>15mg ORR</t>
+  </si>
+  <si>
+    <t>15mg DCR</t>
+  </si>
+  <si>
+    <t>n=53</t>
+  </si>
+  <si>
+    <t>15mg PFS</t>
+  </si>
+  <si>
+    <t>15mg DOR</t>
+  </si>
+  <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>15mg OS</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>15mg MAF</t>
+  </si>
+  <si>
+    <t>n=47</t>
+  </si>
+  <si>
+    <t>Plasma PK (SD)</t>
+  </si>
+  <si>
+    <t>0.34ng/mL (0.345)</t>
+  </si>
+  <si>
+    <t>n=10</t>
+  </si>
+  <si>
+    <t>15mg ORR (1L)</t>
+  </si>
+  <si>
+    <t>15mg ORR (2L)</t>
+  </si>
+  <si>
+    <t>n=13</t>
+  </si>
+  <si>
+    <t>n=40</t>
+  </si>
+  <si>
+    <t>BI-2536</t>
+  </si>
+  <si>
+    <t>Phase Ib/II in leukemia</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>RAS-mut mCRC</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Phase I PK, biomarkers not S.S</t>
+  </si>
+  <si>
+    <t>co-developed w/ pfizer; 100% economics; Bought from NMS</t>
+  </si>
+  <si>
+    <t>RAS-mut mCRC 1L</t>
+  </si>
+  <si>
+    <t>Phase II "TROV-053" in mCRPC n=72 NCT03414034</t>
+  </si>
+  <si>
+    <t>Mross, K., Dittrich, C., Aulitzky, W. et al. A randomised phase II trial of the Polo-like kinase inhibitor BI 2536 in chemo-naïve patients with unresectable exocrine adenocarcinoma of the pancreas – a study within the Central European Society Anticancer Drug Research (CESAR) collaborative network. Br J Cancer 107, 280–286 (2012). https://doi.org/10.1038/bjc.2012.257</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Döhner H, Symeonidis A, Deeren D, Demeter J, Sanz MA, Anagnostopoulos A, Esteve J, Fiedler W, Porkka K, Kim HJ, Lee JH, Usuki K, D'Ardia S, Won Jung C, Salamero O, Horst HA, Recher C, Rousselot P, Sandhu I, Theunissen K, Thol F, Döhner K, Teleanu V, DeAngelo DJ, Naoe T, Sekeres MA, Belsack V, Ge M, Taube T, Ottmann OG. Adjunctive Volasertib in Patients With Acute Myeloid Leukemia not Eligible for Standard Induction Therapy: A Randomized, Phase 3 Trial. Hemasphere. 2021 Aug 2;5(8):e617. doi: 10.1097/HS9.0000000000000617. PMID: 34350385; PMCID: PMC8328241.</t>
+  </si>
+  <si>
+    <t>Smith, L., Farzan, R., Ali, S. et al. The responses of cancer cells to PLK1 inhibitors reveal a novel protective role for p53 in maintaining centrosome separation. Sci Rep 7, 16115 (2017). https://doi.org/10.1038/s41598-017-16394-2</t>
+  </si>
+  <si>
+    <t>co-developed w/ pfizer; Bought from NMS; 100% economics</t>
+  </si>
+  <si>
+    <t>cetuximab</t>
+  </si>
+  <si>
+    <t>mAb</t>
+  </si>
+  <si>
+    <t>interim data:</t>
+  </si>
+  <si>
+    <t>more interim data 7/29/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -752,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -785,6 +891,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,13 +920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -870,13 +981,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>97670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -931,13 +1042,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35494</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -992,13 +1103,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>524606</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>124834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1036,13 +1147,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>70675</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1097,13 +1208,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>273494</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>45136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1158,13 +1269,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281829</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>92449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>110851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1219,13 +1330,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>159684</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>133057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>536202</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>69478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1280,13 +1391,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>211648</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1341,13 +1452,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>481854</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>429186</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>41463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1402,13 +1513,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>183778</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>598395</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>142521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1463,13 +1574,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561114</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1524,13 +1635,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>36125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1585,13 +1696,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>89575</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1685,6 +1796,72 @@
         <a:xfrm>
           <a:off x="6257925" y="66675"/>
           <a:ext cx="2228850" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301716</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC1D683-C1A3-DCCC-EBE6-5BF550DECC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3464016" y="0"/>
+          <a:ext cx="6699159" cy="5969574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2029,7 +2206,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D38" dT="2025-07-26T07:21:58.13" personId="{EA317E8E-52CD-4362-B642-A637169911F2}" id="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
+  <threadedComment ref="D54" dT="2025-07-26T07:21:58.13" personId="{EA317E8E-52CD-4362-B642-A637169911F2}" id="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
     <text xml:space="preserve">Bev naïve mCRC RAS-mut pateints as per press release 1L; 2L only ~ 9500 bev naiive </text>
   </threadedComment>
 </ThreadedComments>
@@ -2040,7 +2217,7 @@
   <dimension ref="B3:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2226,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
@@ -2083,10 +2260,10 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
@@ -2095,7 +2272,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="G4" s="20"/>
       <c r="J4" t="s">
@@ -2166,7 +2343,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K9" s="1">
         <f>K6/K4</f>
@@ -2198,12 +2375,12 @@
         <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2243,13 +2420,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3304BC0B-A393-421F-A17A-C6AF338ED280}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2258,12 +2435,12 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2277,38 +2454,52 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>166</v>
+      <c r="H8" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2324,14 +2515,14 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2358,315 +2549,374 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="16">
+        <v>45865</v>
+      </c>
       <c r="C12" s="3">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="16">
+        <v>45865</v>
+      </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="16">
+        <v>45865</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="E20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="E22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="E26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="E27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="E29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>45865</v>
+      </c>
       <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="E31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="E32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="E33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="E37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="3"/>
       <c r="E38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
       <c r="E39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
       <c r="E40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+      <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="16">
+        <v>45865</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
       <c r="D45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
       <c r="D47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="3"/>
+      <c r="E48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="16">
+        <v>45865</v>
+      </c>
       <c r="C50" s="3">
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2679,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2703,7 +2953,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2711,7 +2961,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2719,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2727,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2735,7 +2985,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2743,20 +2993,20 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2764,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2774,7 +3024,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2782,572 +3032,720 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="M23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C29" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C32" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D30" s="22">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D36" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="14">
+        <v>-0.75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="4"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D37">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D52" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D53">
         <v>2025</v>
       </c>
-      <c r="E37">
-        <f>D37+1</f>
+      <c r="E53">
+        <f>D53+1</f>
         <v>2026</v>
       </c>
-      <c r="F37">
-        <f t="shared" ref="F37:V37" si="0">E37+1</f>
+      <c r="F53">
+        <f t="shared" ref="F53:V53" si="0">E53+1</f>
         <v>2027</v>
       </c>
-      <c r="G37">
+      <c r="G53">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H37">
+      <c r="H53">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I37">
+      <c r="I53">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J37">
+      <c r="J53">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K37">
+      <c r="K53">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L37">
+      <c r="L53">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M37">
+      <c r="M53">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N37">
+      <c r="N53">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O37">
+      <c r="O53">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P37">
+      <c r="P53">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q37">
+      <c r="Q53">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="R37">
+      <c r="R53">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="S37">
+      <c r="S53">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="T37">
+      <c r="T53">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="U37">
+      <c r="U53">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="V37">
+      <c r="V53">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D54" s="2">
         <f>48000</f>
         <v>48000</v>
       </c>
-      <c r="E38" s="2">
-        <f>D38*1.01</f>
+      <c r="E54" s="2">
+        <f>D54*1.01</f>
         <v>48480</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" ref="F38:V38" si="1">E38*1.01</f>
+      <c r="F54" s="2">
+        <f t="shared" ref="F54:V54" si="1">E54*1.01</f>
         <v>48964.800000000003</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G54" s="2">
         <f t="shared" si="1"/>
         <v>49454.448000000004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H54" s="2">
         <f t="shared" si="1"/>
         <v>49948.992480000008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I54" s="2">
         <f t="shared" si="1"/>
         <v>50448.482404800008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J54" s="2">
         <f t="shared" si="1"/>
         <v>50952.967228848007</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K54" s="2">
         <f t="shared" si="1"/>
         <v>51462.496901136488</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L54" s="2">
         <f t="shared" si="1"/>
         <v>51977.12187014785</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M54" s="2">
         <f t="shared" si="1"/>
         <v>52496.893088849327</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N54" s="2">
         <f t="shared" si="1"/>
         <v>53021.862019737819</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O54" s="2">
         <f t="shared" si="1"/>
         <v>53552.0806399352</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P54" s="2">
         <f t="shared" si="1"/>
         <v>54087.601446334556</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q54" s="2">
         <f t="shared" si="1"/>
         <v>54628.477460797905</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R54" s="2">
         <f t="shared" si="1"/>
         <v>55174.762235405884</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S54" s="2">
         <f t="shared" si="1"/>
         <v>55726.509857759942</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T54" s="2">
         <f t="shared" si="1"/>
         <v>56283.77495633754</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U54" s="2">
         <f t="shared" si="1"/>
         <v>56846.612705900916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V54" s="2">
         <f t="shared" si="1"/>
         <v>57415.078832959924</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="2">
-        <f>D38*0.4</f>
-        <v>19200</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" ref="E39:V39" si="2">E38*0.4</f>
-        <v>19392</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="D55" s="2">
+        <f>D54*0.2</f>
+        <v>9600</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" ref="E55:V55" si="2">E54*0.2</f>
+        <v>9696</v>
+      </c>
+      <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>19585.920000000002</v>
-      </c>
-      <c r="G39" s="2">
+        <v>9792.9600000000009</v>
+      </c>
+      <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>19781.779200000004</v>
-      </c>
-      <c r="H39" s="2">
+        <v>9890.8896000000022</v>
+      </c>
+      <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>19979.596992000006</v>
-      </c>
-      <c r="I39" s="2">
+        <v>9989.7984960000031</v>
+      </c>
+      <c r="I55" s="2">
         <f t="shared" si="2"/>
-        <v>20179.392961920006</v>
-      </c>
-      <c r="J39" s="2">
+        <v>10089.696480960003</v>
+      </c>
+      <c r="J55" s="2">
         <f t="shared" si="2"/>
-        <v>20381.186891539204</v>
-      </c>
-      <c r="K39" s="2">
+        <v>10190.593445769602</v>
+      </c>
+      <c r="K55" s="2">
         <f t="shared" si="2"/>
-        <v>20584.998760454597</v>
-      </c>
-      <c r="L39" s="2">
+        <v>10292.499380227298</v>
+      </c>
+      <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>20790.848748059143</v>
-      </c>
-      <c r="M39" s="2">
+        <v>10395.424374029571</v>
+      </c>
+      <c r="M55" s="2">
         <f t="shared" si="2"/>
-        <v>20998.757235539731</v>
-      </c>
-      <c r="N39" s="2">
+        <v>10499.378617769866</v>
+      </c>
+      <c r="N55" s="2">
         <f t="shared" si="2"/>
-        <v>21208.744807895127</v>
-      </c>
-      <c r="O39" s="2">
+        <v>10604.372403947564</v>
+      </c>
+      <c r="O55" s="2">
         <f t="shared" si="2"/>
-        <v>21420.832255974081</v>
-      </c>
-      <c r="P39" s="2">
+        <v>10710.41612798704</v>
+      </c>
+      <c r="P55" s="2">
         <f t="shared" si="2"/>
-        <v>21635.040578533823</v>
-      </c>
-      <c r="Q39" s="2">
+        <v>10817.520289266911</v>
+      </c>
+      <c r="Q55" s="2">
         <f t="shared" si="2"/>
-        <v>21851.390984319165</v>
-      </c>
-      <c r="R39" s="2">
+        <v>10925.695492159582</v>
+      </c>
+      <c r="R55" s="2">
         <f t="shared" si="2"/>
-        <v>22069.904894162355</v>
-      </c>
-      <c r="S39" s="2">
+        <v>11034.952447081178</v>
+      </c>
+      <c r="S55" s="2">
         <f t="shared" si="2"/>
-        <v>22290.603943103979</v>
-      </c>
-      <c r="T39" s="2">
+        <v>11145.301971551989</v>
+      </c>
+      <c r="T55" s="2">
         <f t="shared" si="2"/>
-        <v>22513.509982535019</v>
-      </c>
-      <c r="U39" s="2">
+        <v>11256.754991267509</v>
+      </c>
+      <c r="U55" s="2">
         <f t="shared" si="2"/>
-        <v>22738.645082360366</v>
-      </c>
-      <c r="V39" s="2">
+        <v>11369.322541180183</v>
+      </c>
+      <c r="V55" s="2">
         <f t="shared" si="2"/>
-        <v>22966.03153318397</v>
-      </c>
-    </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+        <v>11483.015766591985</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D56" s="2">
         <v>30000</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E56" s="2">
         <v>30000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F56" s="2">
         <v>30000</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G56" s="2">
         <v>30000</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H56" s="2">
         <v>30000</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I56" s="2">
         <v>30000</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J56" s="2">
         <v>30000</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K56" s="2">
         <v>30000</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L56" s="2">
         <v>30000</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M56" s="2">
         <v>30000</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N56" s="2">
         <v>30000</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O56" s="2">
         <v>30000</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P56" s="2">
         <v>30000</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q56" s="2">
         <v>30000</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R56" s="2">
         <v>30000</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S56" s="2">
         <v>30000</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T56" s="2">
         <v>30000</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U56" s="2">
         <v>30000</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V56" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="2">
-        <f>(F40*F39)/1000000*0.5</f>
+      <c r="F57" s="2">
+        <f>(F56*F55)/1000000</f>
         <v>293.78879999999998</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" ref="G41:V41" si="3">(G40*G39)/1000000*0.5</f>
+      <c r="G57" s="2">
+        <f t="shared" ref="G57:V57" si="3">(G56*G55)/1000000</f>
         <v>296.72668800000008</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H57" s="2">
         <f t="shared" si="3"/>
         <v>299.69395488000009</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I57" s="2">
         <f t="shared" si="3"/>
         <v>302.69089442880011</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J57" s="2">
         <f t="shared" si="3"/>
         <v>305.71780337308809</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K57" s="2">
         <f t="shared" si="3"/>
         <v>308.77498140681894</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L57" s="2">
         <f t="shared" si="3"/>
         <v>311.8627312208871</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M57" s="2">
         <f t="shared" si="3"/>
         <v>314.98135853309594</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N57" s="2">
         <f t="shared" si="3"/>
         <v>318.13117211842695</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O57" s="2">
         <f t="shared" si="3"/>
         <v>321.31248383961122</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P57" s="2">
         <f t="shared" si="3"/>
         <v>324.52560867800736</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q57" s="2">
         <f t="shared" si="3"/>
         <v>327.77086476478752</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R57" s="2">
         <f t="shared" si="3"/>
         <v>331.04857341243536</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S57" s="2">
         <f t="shared" si="3"/>
         <v>334.35905914655967</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T57" s="2">
         <f t="shared" si="3"/>
         <v>337.70264973802529</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U57" s="2">
         <f t="shared" si="3"/>
         <v>341.07967623540549</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V57" s="2">
         <f t="shared" si="3"/>
         <v>344.49047299775958</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E58" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="15">
-        <f>NPV(E42,F41:V41)/2-I46</f>
-        <v>1126.8047877912325</v>
-      </c>
-      <c r="G43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="1">
-        <f>E43/Main!K4</f>
-        <v>16.937810597228641</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+      <c r="E59" s="15">
+        <f>NPV(E58,F57:V57)/2-I61</f>
+        <v>1426.8047877912325</v>
+      </c>
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1">
+        <f>E59/Main!K4</f>
+        <v>21.447325674040712</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>5</v>
       </c>
-      <c r="E45">
+      <c r="E61">
         <v>190</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="14">
-        <f>E45/E43</f>
-        <v>0.1686183818693554</v>
-      </c>
-      <c r="G46" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="14">
+        <f>E61/E59</f>
+        <v>0.13316467790532846</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="M75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>142</v>
-      </c>
-      <c r="M58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="M59" t="s">
-        <v>140</v>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DBB6810F-DA35-4E7F-9E53-B3A06C3547EB}"/>
-    <hyperlink ref="G44" r:id="rId1" xr:uid="{AE16A417-F2E0-404D-A86B-E9F7417231B5}"/>
+    <hyperlink ref="G60" r:id="rId1" xr:uid="{AE16A417-F2E0-404D-A86B-E9F7417231B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3356,6 +3754,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDEB657-BF2F-4A1A-B6EA-14DBF6977CC7}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6197CFA1-4655-4C42-8497-94527FDDAAB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5BB260-7BBF-443F-8B37-1BCF2F9058F9}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -3377,7 +3859,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -3385,7 +3867,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>113</v>
@@ -3393,7 +3875,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="16">
         <v>45223</v>
@@ -3401,7 +3883,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="16">
         <v>45349</v>
@@ -3417,108 +3899,108 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBD638-98B8-43CF-88AA-BCFB392B4BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F11D898-4D9B-4DE4-B2D2-615657C52BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1545" windowWidth="22935" windowHeight="13935" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="2205" yWindow="1260" windowWidth="22335" windowHeight="13875" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="199">
   <si>
     <t>Price</t>
   </si>
@@ -461,33 +461,6 @@
     <t xml:space="preserve">it failed its previous phase 2 so theyre doing another with just the subgroup </t>
   </si>
   <si>
-    <t>A fisher's exact test on the first IA yields a p value of ~0.4 for both the pooled onvansertib &amp; 30mg onvansertib</t>
-  </si>
-  <si>
-    <t>Onvansertib is a P-gp substrate. This means with all the bear thesis around insufficient exposure as mono or combo, I still overestimated the tumor tissue exposure.</t>
-  </si>
-  <si>
-    <t>Onvansertib’s 30 mg QD x 5d dosing yields brief IC50 exposure (~4 hours per dose), totaling ~20 hours above 212 ng/ml across the 21 day cycle.</t>
-  </si>
-  <si>
-    <t>Conclusion: With 30mg QD x 5d, onvansertib *only briefly* touches the IC50 (usual practice is IC90, nvm) under free-drug hypothesis. For highly sensitive tumor, this dose might modestly synergize with SOC, but will need large N to show any stat significance, if there is any.</t>
-  </si>
-  <si>
-    <t>the exposure on day 1 won't be sufficient.</t>
-  </si>
-  <si>
-    <t>Back when it was called NMS-1286937, 45mg and 64mg doses were found not to impact pHH3 levels (Weiss GJ, 2017) (notorious PD biomarker for Plk1 inhibition)</t>
-  </si>
-  <si>
-    <t>Bev naive pts historically respond better when given bev... and bev exposed pts are showing no signs of activity at all.</t>
-  </si>
-  <si>
-    <t>page 23. This is how Cardiff justified the doses for the mCRPC trial. 10x IC50 = 32.5ng/ml = 61nM (confirmed Fu,p=0.1) so IC50 = 6nM in vitro However, - 10nM onva on a CRPC cell line = 90% viability - &lt;25nM onva on a CRC cell line = 99% viability</t>
-  </si>
-  <si>
-    <t>MWt=532 g/mol Fu,p ~ 0.1 IC50 for the *most sensitivie CRC cell line* ~ 0.04uM min efficacious total concentration = 0.04*MWt/Fu,p = 212 ng/ml The drug candidate (assuming 30mg QD) is mildly active on tumor for 4hr every 15 days</t>
-  </si>
-  <si>
     <t>Extra Cost to finish drug:</t>
   </si>
   <si>
@@ -681,6 +654,9 @@
   </si>
   <si>
     <t>more interim data 7/29/2025</t>
+  </si>
+  <si>
+    <t>Bev naive pts historically respond better when given bev and bev exposed show NO ORR.</t>
   </si>
 </sst>
 </file>
@@ -920,13 +896,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -981,13 +957,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>97670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1042,13 +1018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35494</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1103,13 +1079,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>524606</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>124834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1147,13 +1123,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>70675</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1208,13 +1184,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>273494</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>45136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1269,13 +1245,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281829</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>92449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>110851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,13 +1306,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>159684</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>133057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>536202</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>69478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1391,13 +1367,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>211648</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1452,13 +1428,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>481854</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>429186</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>41463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1513,13 +1489,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>183778</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>598395</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>142521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1574,13 +1550,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561114</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1635,13 +1611,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>36125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1696,13 +1672,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>89575</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2217,7 +2193,7 @@
   <dimension ref="B3:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2272,7 +2248,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G4" s="20"/>
       <c r="J4" t="s">
@@ -2354,27 +2330,31 @@
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>13</v>
+      <c r="K10" s="14">
+        <f>K9/K3-1</f>
+        <v>-0.69747249820547041</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2426,7 +2406,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2454,41 +2434,41 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" t="s">
         <v>189</v>
-      </c>
-      <c r="H4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2499,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2515,8 +2495,8 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2547,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -2594,7 +2574,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -2644,7 +2624,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
         <v>59</v>
@@ -2672,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>58</v>
@@ -2818,7 +2798,7 @@
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>119</v>
@@ -2827,7 +2807,7 @@
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>118</v>
@@ -2836,7 +2816,7 @@
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>117</v>
@@ -2845,7 +2825,7 @@
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>116</v>
@@ -2859,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>115</v>
@@ -2893,7 +2873,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>112</v>
@@ -2901,22 +2881,22 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2929,10 +2909,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
-  <dimension ref="A1:V270"/>
+  <dimension ref="A1:V262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2953,7 +2933,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2961,7 +2941,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2993,20 +2973,20 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3014,7 +2994,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3024,7 +3004,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3039,7 +3019,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3060,12 +3040,12 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
@@ -3080,111 +3060,111 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D29" s="22">
         <v>0.26400000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D30" s="22">
         <v>0.92500000000000004</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D34" s="14">
         <v>-0.75</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D36" s="14">
         <v>0.77</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D37" s="23">
         <v>0.1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
@@ -3194,7 +3174,7 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="24" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="4"/>
@@ -3216,7 +3196,7 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
@@ -3226,27 +3206,27 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D52" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="3:22" x14ac:dyDescent="0.2">
@@ -3664,82 +3644,46 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E62" s="14">
         <f>E61/E59</f>
         <v>0.13316467790532846</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-      <c r="M74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>147</v>
-      </c>
-      <c r="M75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>165</v>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3726,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3795,7 +3739,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3810,12 +3754,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F11D898-4D9B-4DE4-B2D2-615657C52BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50790FC-2902-4261-9416-8F5D052FFD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1260" windowWidth="22335" windowHeight="13875" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={4382AF29-415F-4F37-9F48-FB8CD8FAF520}</author>
   </authors>
   <commentList>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="212">
   <si>
     <t>Price</t>
   </si>
@@ -657,6 +657,45 @@
   </si>
   <si>
     <t>Bev naive pts historically respond better when given bev and bev exposed show NO ORR.</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Interim data</t>
+  </si>
+  <si>
+    <t>Confirmed ORR</t>
+  </si>
+  <si>
+    <t>ORR</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>30mg</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>PFS not S.S</t>
+  </si>
+  <si>
+    <t>fischer's exact p=0.15</t>
+  </si>
+  <si>
+    <t>chi square p=0.1</t>
   </si>
 </sst>
 </file>
@@ -834,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -872,6 +911,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,13 +941,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -957,13 +1002,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>97670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1018,13 +1063,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35494</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1079,13 +1124,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>524606</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>124834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,13 +1168,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>70675</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1184,13 +1229,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>273494</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>45136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1245,13 +1290,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281829</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>92449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>110851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1306,13 +1351,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>159684</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>133057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>536202</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>69478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1367,13 +1412,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>211648</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1428,13 +1473,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>481854</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>429186</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>41463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1489,13 +1534,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>183778</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>598395</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>142521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1550,13 +1595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561114</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1611,13 +1656,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>36125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1672,13 +1717,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>89575</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1786,6 +1831,395 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>401722</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A898235-0E51-42CB-218E-C75757B81669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="9715500"/>
+          <a:ext cx="11984122" cy="2772162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503E1DEF-4FD0-1E1C-F84D-593C8D83E3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="3400425"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC2485A-ED27-BF17-91E1-8456EE078428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="3400425"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5689E2A5-F5D4-F98E-AAE3-BB77A34F8927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="3400425"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3077" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081939EF-CD73-EE03-1F01-D73709C8E85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="7610475"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3078" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3180BF-5AC3-7769-05F0-CC64964CE8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="7610475"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Note: Radiographic response was determined per RECIST 1.1 by blinded independent central review. Spider plot reflects data as of July 8, 2025 from an ongoing trial and unlocked database.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E0A5C6-4EBA-20A6-1554-5E063CEE384B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5915025" y="7515225"/>
+          <a:ext cx="5734050" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>543842</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E087BD0-DC78-4165-8286-6E49179037E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="6400800"/>
+          <a:ext cx="6573167" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2182,7 +2616,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D54" dT="2025-07-26T07:21:58.13" personId="{EA317E8E-52CD-4362-B642-A637169911F2}" id="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
+  <threadedComment ref="D66" dT="2025-07-26T07:21:58.13" personId="{EA317E8E-52CD-4362-B642-A637169911F2}" id="{4382AF29-415F-4F37-9F48-FB8CD8FAF520}">
     <text xml:space="preserve">Bev naïve mCRC RAS-mut pateints as per press release 1L; 2L only ~ 9500 bev naiive </text>
   </threadedComment>
 </ThreadedComments>
@@ -2193,7 +2627,7 @@
   <dimension ref="B3:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3.97</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2270,8 +2704,9 @@
       </c>
       <c r="K5" s="2">
         <f>K4*K3</f>
-        <v>264.10822000000002</v>
-      </c>
+        <v>146.35720000000001</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -2281,11 +2716,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="2">
-        <f>24.1+55.8</f>
-        <v>79.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -2299,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -2314,7 +2748,7 @@
       </c>
       <c r="K8" s="2">
         <f>K5+K7-K6</f>
-        <v>184.20822000000001</v>
+        <v>76.357200000000006</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -2323,7 +2757,7 @@
       </c>
       <c r="K9" s="1">
         <f>K6/K4</f>
-        <v>1.2010341821242825</v>
+        <v>1.0522201845894839</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -2332,7 +2766,7 @@
       </c>
       <c r="K10" s="14">
         <f>K9/K3-1</f>
-        <v>-0.69747249820547041</v>
+        <v>-0.52171809791387103</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -2909,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
-  <dimension ref="A1:V262"/>
+  <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3028,672 +3462,900 @@
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="E20" s="27"/>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="28">
+        <f>I21/I22</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" ref="J23:K23" si="0">J21/J22</f>
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="L23" s="14">
+        <f>K23-I23</f>
+        <v>0.30303030303030304</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="27"/>
+      <c r="I26">
+        <v>37</v>
+      </c>
+      <c r="J26">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="27"/>
+      <c r="H27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="28">
+        <f>I25/I26</f>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" ref="J27:K27" si="1">J25/J26</f>
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="1"/>
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="L27" s="14">
+        <f>K27-I27</f>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29">
+        <f>I25-I21</f>
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <f>J25-J21</f>
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <f>K25-K21</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="I30">
+        <f>I26-I22</f>
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <f>J26-J22</f>
+        <v>26</v>
+      </c>
+      <c r="K30">
+        <f>K26-K22</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="28">
+        <f>I29/I30</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="J31" s="28">
+        <f t="shared" ref="J31:K31" si="2">J29/J30</f>
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="28">
+        <f t="shared" si="2"/>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="L31" s="14">
+        <f>K31-I31</f>
+        <v>0.11263736263736257</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="N33" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="13" t="s">
+      <c r="L34" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+      <c r="O34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <f>N36-N34</f>
+        <v>26</v>
+      </c>
+      <c r="O35">
+        <f>O36-O34</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="N36">
+        <v>37</v>
+      </c>
+      <c r="O36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="M37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="M38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D40" s="22">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D41" s="22">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>165</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D42" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>166</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D43" t="s">
         <v>167</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>169</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D45" s="14">
         <v>-0.75</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E45" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D47" s="14">
         <v>0.77</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E47" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="4" t="s">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C48" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D48" s="23">
         <v>0.1</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="4"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="24" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="4"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="24"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="4"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="13" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="25"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="13" t="s">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C48" s="13" t="s">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D52" s="13" t="s">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D53">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D65">
         <v>2025</v>
       </c>
-      <c r="E53">
-        <f>D53+1</f>
+      <c r="E65">
+        <f>D65+1</f>
         <v>2026</v>
       </c>
-      <c r="F53">
-        <f t="shared" ref="F53:V53" si="0">E53+1</f>
+      <c r="F65">
+        <f t="shared" ref="F65:V65" si="3">E65+1</f>
         <v>2027</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
+      <c r="G65">
+        <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
+      <c r="H65">
+        <f t="shared" si="3"/>
         <v>2029</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
+      <c r="I65">
+        <f t="shared" si="3"/>
         <v>2030</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
+      <c r="J65">
+        <f t="shared" si="3"/>
         <v>2031</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="0"/>
+      <c r="K65">
+        <f t="shared" si="3"/>
         <v>2032</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
+      <c r="L65">
+        <f t="shared" si="3"/>
         <v>2033</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="0"/>
+      <c r="M65">
+        <f t="shared" si="3"/>
         <v>2034</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="0"/>
+      <c r="N65">
+        <f t="shared" si="3"/>
         <v>2035</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="0"/>
+      <c r="O65">
+        <f t="shared" si="3"/>
         <v>2036</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="0"/>
+      <c r="P65">
+        <f t="shared" si="3"/>
         <v>2037</v>
       </c>
-      <c r="Q53">
-        <f t="shared" si="0"/>
+      <c r="Q65">
+        <f t="shared" si="3"/>
         <v>2038</v>
       </c>
-      <c r="R53">
-        <f t="shared" si="0"/>
+      <c r="R65">
+        <f t="shared" si="3"/>
         <v>2039</v>
       </c>
-      <c r="S53">
-        <f t="shared" si="0"/>
+      <c r="S65">
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-      <c r="T53">
-        <f t="shared" si="0"/>
+      <c r="T65">
+        <f t="shared" si="3"/>
         <v>2041</v>
       </c>
-      <c r="U53">
-        <f t="shared" si="0"/>
+      <c r="U65">
+        <f t="shared" si="3"/>
         <v>2042</v>
       </c>
-      <c r="V53">
-        <f t="shared" si="0"/>
+      <c r="V65">
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D66" s="2">
         <f>48000</f>
         <v>48000</v>
       </c>
-      <c r="E54" s="2">
-        <f>D54*1.01</f>
+      <c r="E66" s="2">
+        <f>D66*1.01</f>
         <v>48480</v>
       </c>
-      <c r="F54" s="2">
-        <f t="shared" ref="F54:V54" si="1">E54*1.01</f>
+      <c r="F66" s="2">
+        <f t="shared" ref="F66:V66" si="4">E66*1.01</f>
         <v>48964.800000000003</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="1"/>
+      <c r="G66" s="2">
+        <f t="shared" si="4"/>
         <v>49454.448000000004</v>
       </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
+      <c r="H66" s="2">
+        <f t="shared" si="4"/>
         <v>49948.992480000008</v>
       </c>
-      <c r="I54" s="2">
-        <f t="shared" si="1"/>
+      <c r="I66" s="2">
+        <f t="shared" si="4"/>
         <v>50448.482404800008</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="1"/>
+      <c r="J66" s="2">
+        <f t="shared" si="4"/>
         <v>50952.967228848007</v>
       </c>
-      <c r="K54" s="2">
-        <f t="shared" si="1"/>
+      <c r="K66" s="2">
+        <f t="shared" si="4"/>
         <v>51462.496901136488</v>
       </c>
-      <c r="L54" s="2">
-        <f t="shared" si="1"/>
+      <c r="L66" s="2">
+        <f t="shared" si="4"/>
         <v>51977.12187014785</v>
       </c>
-      <c r="M54" s="2">
-        <f t="shared" si="1"/>
+      <c r="M66" s="2">
+        <f t="shared" si="4"/>
         <v>52496.893088849327</v>
       </c>
-      <c r="N54" s="2">
-        <f t="shared" si="1"/>
+      <c r="N66" s="2">
+        <f t="shared" si="4"/>
         <v>53021.862019737819</v>
       </c>
-      <c r="O54" s="2">
-        <f t="shared" si="1"/>
+      <c r="O66" s="2">
+        <f t="shared" si="4"/>
         <v>53552.0806399352</v>
       </c>
-      <c r="P54" s="2">
-        <f t="shared" si="1"/>
+      <c r="P66" s="2">
+        <f t="shared" si="4"/>
         <v>54087.601446334556</v>
       </c>
-      <c r="Q54" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q66" s="2">
+        <f t="shared" si="4"/>
         <v>54628.477460797905</v>
       </c>
-      <c r="R54" s="2">
-        <f t="shared" si="1"/>
+      <c r="R66" s="2">
+        <f t="shared" si="4"/>
         <v>55174.762235405884</v>
       </c>
-      <c r="S54" s="2">
-        <f t="shared" si="1"/>
+      <c r="S66" s="2">
+        <f t="shared" si="4"/>
         <v>55726.509857759942</v>
       </c>
-      <c r="T54" s="2">
-        <f t="shared" si="1"/>
+      <c r="T66" s="2">
+        <f t="shared" si="4"/>
         <v>56283.77495633754</v>
       </c>
-      <c r="U54" s="2">
-        <f t="shared" si="1"/>
+      <c r="U66" s="2">
+        <f t="shared" si="4"/>
         <v>56846.612705900916</v>
       </c>
-      <c r="V54" s="2">
-        <f t="shared" si="1"/>
+      <c r="V66" s="2">
+        <f t="shared" si="4"/>
         <v>57415.078832959924</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="2">
-        <f>D54*0.2</f>
+      <c r="D67" s="2">
+        <f>D66*0.2</f>
         <v>9600</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" ref="E55:V55" si="2">E54*0.2</f>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:V67" si="5">E66*0.2</f>
         <v>9696</v>
       </c>
-      <c r="F55" s="2">
-        <f t="shared" si="2"/>
+      <c r="F67" s="2">
+        <f t="shared" si="5"/>
         <v>9792.9600000000009</v>
       </c>
-      <c r="G55" s="2">
-        <f t="shared" si="2"/>
+      <c r="G67" s="2">
+        <f t="shared" si="5"/>
         <v>9890.8896000000022</v>
       </c>
-      <c r="H55" s="2">
-        <f t="shared" si="2"/>
+      <c r="H67" s="2">
+        <f t="shared" si="5"/>
         <v>9989.7984960000031</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="2"/>
+      <c r="I67" s="2">
+        <f t="shared" si="5"/>
         <v>10089.696480960003</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="2"/>
+      <c r="J67" s="2">
+        <f t="shared" si="5"/>
         <v>10190.593445769602</v>
       </c>
-      <c r="K55" s="2">
-        <f t="shared" si="2"/>
+      <c r="K67" s="2">
+        <f t="shared" si="5"/>
         <v>10292.499380227298</v>
       </c>
-      <c r="L55" s="2">
-        <f t="shared" si="2"/>
+      <c r="L67" s="2">
+        <f t="shared" si="5"/>
         <v>10395.424374029571</v>
       </c>
-      <c r="M55" s="2">
-        <f t="shared" si="2"/>
+      <c r="M67" s="2">
+        <f t="shared" si="5"/>
         <v>10499.378617769866</v>
       </c>
-      <c r="N55" s="2">
-        <f t="shared" si="2"/>
+      <c r="N67" s="2">
+        <f t="shared" si="5"/>
         <v>10604.372403947564</v>
       </c>
-      <c r="O55" s="2">
-        <f t="shared" si="2"/>
+      <c r="O67" s="2">
+        <f t="shared" si="5"/>
         <v>10710.41612798704</v>
       </c>
-      <c r="P55" s="2">
-        <f t="shared" si="2"/>
+      <c r="P67" s="2">
+        <f t="shared" si="5"/>
         <v>10817.520289266911</v>
       </c>
-      <c r="Q55" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q67" s="2">
+        <f t="shared" si="5"/>
         <v>10925.695492159582</v>
       </c>
-      <c r="R55" s="2">
-        <f t="shared" si="2"/>
+      <c r="R67" s="2">
+        <f t="shared" si="5"/>
         <v>11034.952447081178</v>
       </c>
-      <c r="S55" s="2">
-        <f t="shared" si="2"/>
+      <c r="S67" s="2">
+        <f t="shared" si="5"/>
         <v>11145.301971551989</v>
       </c>
-      <c r="T55" s="2">
-        <f t="shared" si="2"/>
+      <c r="T67" s="2">
+        <f t="shared" si="5"/>
         <v>11256.754991267509</v>
       </c>
-      <c r="U55" s="2">
-        <f t="shared" si="2"/>
+      <c r="U67" s="2">
+        <f t="shared" si="5"/>
         <v>11369.322541180183</v>
       </c>
-      <c r="V55" s="2">
-        <f t="shared" si="2"/>
+      <c r="V67" s="2">
+        <f t="shared" si="5"/>
         <v>11483.015766591985</v>
       </c>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D68" s="2">
         <v>30000</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E68" s="2">
         <v>30000</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F68" s="2">
         <v>30000</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G68" s="2">
         <v>30000</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H68" s="2">
         <v>30000</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I68" s="2">
         <v>30000</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J68" s="2">
         <v>30000</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K68" s="2">
         <v>30000</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L68" s="2">
         <v>30000</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M68" s="2">
         <v>30000</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N68" s="2">
         <v>30000</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O68" s="2">
         <v>30000</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P68" s="2">
         <v>30000</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q68" s="2">
         <v>30000</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R68" s="2">
         <v>30000</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S68" s="2">
         <v>30000</v>
       </c>
-      <c r="T56" s="2">
+      <c r="T68" s="2">
         <v>30000</v>
       </c>
-      <c r="U56" s="2">
+      <c r="U68" s="2">
         <v>30000</v>
       </c>
-      <c r="V56" s="2">
+      <c r="V68" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="2">
-        <f>(F56*F55)/1000000</f>
+      <c r="F69" s="2">
+        <f>(F68*F67)/1000000</f>
         <v>293.78879999999998</v>
       </c>
-      <c r="G57" s="2">
-        <f t="shared" ref="G57:V57" si="3">(G56*G55)/1000000</f>
+      <c r="G69" s="2">
+        <f t="shared" ref="G69:V69" si="6">(G68*G67)/1000000</f>
         <v>296.72668800000008</v>
       </c>
-      <c r="H57" s="2">
-        <f t="shared" si="3"/>
+      <c r="H69" s="2">
+        <f t="shared" si="6"/>
         <v>299.69395488000009</v>
       </c>
-      <c r="I57" s="2">
-        <f t="shared" si="3"/>
+      <c r="I69" s="2">
+        <f t="shared" si="6"/>
         <v>302.69089442880011</v>
       </c>
-      <c r="J57" s="2">
-        <f t="shared" si="3"/>
+      <c r="J69" s="2">
+        <f t="shared" si="6"/>
         <v>305.71780337308809</v>
       </c>
-      <c r="K57" s="2">
-        <f t="shared" si="3"/>
+      <c r="K69" s="2">
+        <f t="shared" si="6"/>
         <v>308.77498140681894</v>
       </c>
-      <c r="L57" s="2">
-        <f t="shared" si="3"/>
+      <c r="L69" s="2">
+        <f t="shared" si="6"/>
         <v>311.8627312208871</v>
       </c>
-      <c r="M57" s="2">
-        <f t="shared" si="3"/>
+      <c r="M69" s="2">
+        <f t="shared" si="6"/>
         <v>314.98135853309594</v>
       </c>
-      <c r="N57" s="2">
-        <f t="shared" si="3"/>
+      <c r="N69" s="2">
+        <f t="shared" si="6"/>
         <v>318.13117211842695</v>
       </c>
-      <c r="O57" s="2">
-        <f t="shared" si="3"/>
+      <c r="O69" s="2">
+        <f t="shared" si="6"/>
         <v>321.31248383961122</v>
       </c>
-      <c r="P57" s="2">
-        <f t="shared" si="3"/>
+      <c r="P69" s="2">
+        <f t="shared" si="6"/>
         <v>324.52560867800736</v>
       </c>
-      <c r="Q57" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q69" s="2">
+        <f t="shared" si="6"/>
         <v>327.77086476478752</v>
       </c>
-      <c r="R57" s="2">
-        <f t="shared" si="3"/>
+      <c r="R69" s="2">
+        <f t="shared" si="6"/>
         <v>331.04857341243536</v>
       </c>
-      <c r="S57" s="2">
-        <f t="shared" si="3"/>
+      <c r="S69" s="2">
+        <f t="shared" si="6"/>
         <v>334.35905914655967</v>
       </c>
-      <c r="T57" s="2">
-        <f t="shared" si="3"/>
+      <c r="T69" s="2">
+        <f t="shared" si="6"/>
         <v>337.70264973802529</v>
       </c>
-      <c r="U57" s="2">
-        <f t="shared" si="3"/>
+      <c r="U69" s="2">
+        <f t="shared" si="6"/>
         <v>341.07967623540549</v>
       </c>
-      <c r="V57" s="2">
-        <f t="shared" si="3"/>
+      <c r="V69" s="2">
+        <f t="shared" si="6"/>
         <v>344.49047299775958</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E70" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="15">
-        <f>NPV(E58,F57:V57)/2-I61</f>
+      <c r="E71" s="15">
+        <f>NPV(E70,F69:V69)/2-I73</f>
         <v>1426.8047877912325</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="1">
-        <f>E59/Main!K4</f>
+      <c r="E72" s="1">
+        <f>E71/Main!K4</f>
         <v>21.447325674040712</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
         <v>5</v>
       </c>
-      <c r="E61">
+      <c r="E73">
         <v>190</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" t="s">
+      <c r="F73" s="14"/>
+      <c r="G73" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="14">
-        <f>E61/E59</f>
+      <c r="E74" s="14">
+        <f>E73/E71</f>
         <v>0.13316467790532846</v>
       </c>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DBB6810F-DA35-4E7F-9E53-B3A06C3547EB}"/>
-    <hyperlink ref="G60" r:id="rId1" xr:uid="{AE16A417-F2E0-404D-A86B-E9F7417231B5}"/>
+    <hyperlink ref="G72" r:id="rId1" xr:uid="{AE16A417-F2E0-404D-A86B-E9F7417231B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50790FC-2902-4261-9416-8F5D052FFD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37A480-313D-4665-929A-13746BE55703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="8265" yWindow="1335" windowWidth="22335" windowHeight="13875" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
   <si>
     <t>Price</t>
   </si>
@@ -80,9 +80,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q125</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -527,12 +524,6 @@
     <t>Used post-hoc analysis (n=4; wide SD prob not S.S) to say bev-naiive patients responded better (they should respond better anyways?)</t>
   </si>
   <si>
-    <t>t-test P value = 0.8344 for Bev Naiive group</t>
-  </si>
-  <si>
-    <t>30mg only p value =0.1 for bev naiive</t>
-  </si>
-  <si>
     <t>Phase I "" in metastatic solid tumor n=21 NCT:NCT01014429</t>
   </si>
   <si>
@@ -696,6 +687,12 @@
   </si>
   <si>
     <t>chi square p=0.1</t>
+  </si>
+  <si>
+    <t>NPV if fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assume 30m cash burn </t>
   </si>
 </sst>
 </file>
@@ -873,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -911,12 +908,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,843 +933,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2E6D05-3176-5A0A-A35D-5A41E4938B24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="333375" y="9725025"/>
-          <a:ext cx="7267575" cy="3914775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>97670</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F312F6-28CF-716F-F6BE-B92FA7883452}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="409575" y="13839825"/>
-          <a:ext cx="7515225" cy="2288420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>35494</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C485C361-314E-B023-8512-9EC649828DC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="466725" y="16221076"/>
-          <a:ext cx="7093519" cy="3600450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>524606</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>124834</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD15D32-FA5A-73EC-9A2C-51A0C3729F12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="371475" y="21393150"/>
-          <a:ext cx="5239481" cy="7230484"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>70675</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EF1F3F-4D21-A582-7E7D-34B166518293}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8205025" y="15763875"/>
-          <a:ext cx="5911025" cy="4362450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273494</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>45136</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68816F24-B359-9A47-6AFE-EAF870CC82B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5954876" y="24199102"/>
-          <a:ext cx="5710448" cy="4712386"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>281829</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>92449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>110851</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696482E5-C414-86D4-52A3-0084FDEBB851}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5963211" y="22055978"/>
-          <a:ext cx="6766671" cy="2057872"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>159684</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>133057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>536202</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>69478</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132FD538-32AD-3486-DC5B-893BA4263FC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7684434" y="19078282"/>
-          <a:ext cx="5862918" cy="2203371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>211648</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41B7827-3B1E-5CED-B8EF-F11ECB8A7BA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="33618" y="27466178"/>
-          <a:ext cx="5873980" cy="3642472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>481854</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>429186</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>41463</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C581DCF-2903-ECB5-DA92-EB10FE3BFCE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6163236" y="29045648"/>
-          <a:ext cx="4788274" cy="4568638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>183778</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>598395</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>142521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A25C8B-C3B2-954E-B5F9-B7D27B5FA2DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="183778" y="31273938"/>
-          <a:ext cx="5500967" cy="1415508"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561114</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D556D7-C260-61A9-9A7B-A3EEB6F99347}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="224118" y="33068559"/>
-          <a:ext cx="5413261" cy="4224617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>36125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61E93C5-077A-0090-7F52-3CE792986E6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6029325" y="34526150"/>
-          <a:ext cx="5305425" cy="4002475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89575</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA131EA7-DB2C-F26E-5907-B8E6A9BAE2B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="257175" y="37614225"/>
-          <a:ext cx="7357150" cy="3105150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1801,7 +960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1831,50 +990,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>401722</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>19437</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A898235-0E51-42CB-218E-C75757B81669}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8134350" y="9715500"/>
-          <a:ext cx="11984122" cy="2772162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2146,7 +1261,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2207,7 +1322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2624,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682D3EF-5254-4444-AA2B-5D75BAAEFB2C}">
-  <dimension ref="B3:L16"/>
+  <dimension ref="B3:O16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2642,24 +1757,24 @@
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -2668,21 +1783,21 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G4" s="20"/>
       <c r="J4" t="s">
@@ -2692,10 +1807,10 @@
         <v>66.525999999999996</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="E5" s="3"/>
       <c r="G5" s="7"/>
@@ -2708,7 +1823,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="E6" s="3"/>
       <c r="G6" s="7"/>
@@ -2719,10 +1834,10 @@
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="E7" s="3"/>
       <c r="G7" s="7"/>
@@ -2733,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2751,50 +1866,60 @@
         <v>76.357200000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1">
         <f>K6/K4</f>
         <v>1.0522201845894839</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" s="2">
+        <f>K6-30</f>
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="14">
         <f>K9/K3-1</f>
         <v>-0.52171809791387103</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2851,69 +1976,69 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>136</v>
       </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2054,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2943,84 +2068,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3031,37 +2156,37 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -3072,10 +2197,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -3086,76 +2211,76 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -3166,34 +2291,34 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -3202,67 +2327,67 @@
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -3273,10 +2398,10 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -3285,18 +2410,18 @@
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -3307,30 +2432,30 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3343,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
-  <dimension ref="A1:V274"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3359,137 +2484,137 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="13"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E20" s="27"/>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G21" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -3503,7 +2628,7 @@
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -3523,17 +2648,17 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23" s="28">
+        <v>199</v>
+      </c>
+      <c r="I23" s="14">
         <f>I21/I22</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="14">
         <f t="shared" ref="J23:K23" si="0">J21/J22</f>
         <v>0.5</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="14">
         <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
@@ -3551,7 +2676,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I25">
         <v>16</v>
@@ -3578,17 +2703,17 @@
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E27" s="27"/>
       <c r="H27" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="28">
+        <v>199</v>
+      </c>
+      <c r="I27" s="14">
         <f>I25/I26</f>
         <v>0.43243243243243246</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="14">
         <f t="shared" ref="J27:K27" si="1">J25/J26</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="14">
         <f t="shared" si="1"/>
         <v>0.59459459459459463</v>
       </c>
@@ -3602,18 +2727,18 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G29" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I29">
-        <f>I25-I21</f>
+        <f t="shared" ref="I29:K30" si="2">I25-I21</f>
         <v>13</v>
       </c>
       <c r="J29">
-        <f>J25-J21</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K29">
-        <f>K25-K21</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -3622,32 +2747,32 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="I30">
-        <f>I26-I22</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J30">
-        <f>J26-J22</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K30">
-        <f>K26-K22</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="H31" t="s">
-        <v>202</v>
-      </c>
-      <c r="I31" s="28">
+        <v>199</v>
+      </c>
+      <c r="I31" s="14">
         <f>I29/I30</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J31" s="28">
-        <f t="shared" ref="J31:K31" si="2">J29/J30</f>
+      <c r="J31" s="14">
+        <f t="shared" ref="J31:K31" si="3">J29/J30</f>
         <v>0.5</v>
       </c>
-      <c r="K31" s="28">
-        <f t="shared" si="2"/>
+      <c r="K31" s="14">
+        <f t="shared" si="3"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="L31" s="14">
@@ -3660,18 +2785,18 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N34">
         <v>11</v>
@@ -3692,7 +2817,7 @@
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N36">
         <v>37</v>
@@ -3703,122 +2828,122 @@
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D40" s="22">
         <v>0.26400000000000001</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41" s="22">
         <v>0.92500000000000004</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="D42" t="s">
-        <v>168</v>
-      </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D45" s="14">
         <v>-0.75</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D47" s="14">
         <v>0.77</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="23">
         <v>0.1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -3828,14 +2953,14 @@
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="4"/>
@@ -3852,42 +2977,42 @@
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.2">
@@ -3899,77 +3024,77 @@
         <v>2026</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:V65" si="3">E65+1</f>
+        <f t="shared" ref="F65:V65" si="4">E65+1</f>
         <v>2027</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2030</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2031</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2032</v>
       </c>
       <c r="L65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2035</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2036</v>
       </c>
       <c r="P65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2037</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2038</v>
       </c>
       <c r="R65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2039</v>
       </c>
       <c r="S65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2040</v>
       </c>
       <c r="T65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2041</v>
       </c>
       <c r="U65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2042</v>
       </c>
       <c r="V65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2043</v>
       </c>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <f>48000</f>
@@ -3980,152 +3105,152 @@
         <v>48480</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:V66" si="4">E66*1.01</f>
+        <f t="shared" ref="F66:V66" si="5">E66*1.01</f>
         <v>48964.800000000003</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49454.448000000004</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49948.992480000008</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50448.482404800008</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50952.967228848007</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51462.496901136488</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51977.12187014785</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52496.893088849327</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53021.862019737819</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53552.0806399352</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54087.601446334556</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54628.477460797905</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55174.762235405884</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55726.509857759942</v>
       </c>
       <c r="T66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56283.77495633754</v>
       </c>
       <c r="U66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56846.612705900916</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57415.078832959924</v>
       </c>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <f>D66*0.2</f>
         <v>9600</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:V67" si="5">E66*0.2</f>
+        <f t="shared" ref="E67:V67" si="6">E66*0.2</f>
         <v>9696</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9792.9600000000009</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9890.8896000000022</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9989.7984960000031</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10089.696480960003</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10190.593445769602</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10292.499380227298</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10395.424374029571</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10499.378617769866</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10604.372403947564</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10710.41612798704</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10817.520289266911</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10925.695492159582</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11034.952447081178</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11145.301971551989</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11256.754991267509</v>
       </c>
       <c r="U67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11369.322541180183</v>
       </c>
       <c r="V67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11483.015766591985</v>
       </c>
     </row>
@@ -4193,80 +3318,80 @@
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2">
         <f>(F68*F67)/1000000</f>
         <v>293.78879999999998</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:V69" si="6">(G68*G67)/1000000</f>
+        <f t="shared" ref="G69:V69" si="7">(G68*G67)/1000000</f>
         <v>296.72668800000008</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>299.69395488000009</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>302.69089442880011</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>305.71780337308809</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>308.77498140681894</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>311.8627312208871</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>314.98135853309594</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>318.13117211842695</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>321.31248383961122</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>324.52560867800736</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>327.77086476478752</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>331.04857341243536</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>334.35905914655967</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>337.70264973802529</v>
       </c>
       <c r="U69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>341.07967623540549</v>
       </c>
       <c r="V69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>344.49047299775958</v>
       </c>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" s="14">
         <v>0.08</v>
@@ -4274,26 +3399,26 @@
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71" s="15">
         <f>NPV(E70,F69:V69)/2-I73</f>
         <v>1426.8047877912325</v>
       </c>
       <c r="G71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1">
         <f>E71/Main!K4</f>
         <v>21.447325674040712</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.2">
@@ -4305,12 +3430,12 @@
       </c>
       <c r="F73" s="14"/>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E74" s="14">
         <f>E73/E71</f>
@@ -4319,32 +3444,22 @@
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4375,63 +3490,63 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4460,20 +3575,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>113</v>
@@ -4481,7 +3596,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="16">
         <v>45223</v>
@@ -4489,7 +3604,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="16">
         <v>45349</v>
@@ -4497,116 +3612,116 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37A480-313D-4665-929A-13746BE55703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9383B1E2-18DB-47ED-816A-BC46C7EB8300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="1335" windowWidth="22335" windowHeight="13875" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="4410" yWindow="270" windowWidth="20805" windowHeight="15015" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1741,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682D3EF-5254-4444-AA2B-5D75BAAEFB2C}">
   <dimension ref="B3:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -2470,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9383B1E2-18DB-47ED-816A-BC46C7EB8300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FA341-3A39-4EA4-BC42-27B5946EBFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="270" windowWidth="20805" windowHeight="15015" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="4650" yWindow="570" windowWidth="22140" windowHeight="14805" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
   <si>
     <t>Price</t>
   </si>
@@ -687,12 +687,6 @@
   </si>
   <si>
     <t>chi square p=0.1</t>
-  </si>
-  <si>
-    <t>NPV if fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assume 30m cash burn </t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682D3EF-5254-4444-AA2B-5D75BAAEFB2C}">
-  <dimension ref="B3:O16"/>
+  <dimension ref="B3:N16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1757,7 +1751,7 @@
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1783,7 +1777,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>102</v>
       </c>
@@ -1810,7 +1804,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="E5" s="3"/>
       <c r="G5" s="7"/>
@@ -1823,7 +1817,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="E6" s="3"/>
       <c r="G6" s="7"/>
@@ -1837,7 +1831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="E7" s="3"/>
       <c r="G7" s="7"/>
@@ -1851,7 +1845,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1866,7 +1860,7 @@
         <v>76.357200000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>128</v>
       </c>
@@ -1874,18 +1868,9 @@
         <f>K6/K4</f>
         <v>1.0522201845894839</v>
       </c>
-      <c r="M9" t="s">
-        <v>209</v>
-      </c>
-      <c r="N9" s="2">
-        <f>K6-30</f>
-        <v>40</v>
-      </c>
-      <c r="O9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1894,12 +1879,12 @@
         <v>-0.52171809791387103</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1907,17 +1892,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>107</v>
       </c>
@@ -2054,7 +2039,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2470,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRDF.xlsx
+++ b/CRDF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FA341-3A39-4EA4-BC42-27B5946EBFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56DB69-1917-4CD3-BC1B-9E1AA0998C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="570" windowWidth="22140" windowHeight="14805" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
+    <workbookView xWindow="2880" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="4" xr2:uid="{79FDA760-7998-4D45-BE32-AB37E2F9AB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1735,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682D3EF-5254-4444-AA2B-5D75BAAEFB2C}">
   <dimension ref="B3:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2455,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF4516-12EE-4247-A509-76B0AC5DCC91}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3410,8 +3410,9 @@
       <c r="D73" t="s">
         <v>5</v>
       </c>
-      <c r="E73">
-        <v>190</v>
+      <c r="E73" s="2">
+        <f>Main!K8</f>
+        <v>76.357200000000006</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" t="s">
@@ -3424,7 +3425,7 @@
       </c>
       <c r="E74" s="14">
         <f>E73/E71</f>
-        <v>0.13316467790532846</v>
+        <v>5.3516220756593409E-2</v>
       </c>
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.2">
